--- a/lab3/starter/src/Lab 3.xlsx
+++ b/lab3/starter/src/Lab 3.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/d3goel/ECE-254-Working/ECE254/lab3/starter/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B8388F-0A61-C14E-A5F2-16913F186340}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE32100-507B-7A4C-A746-01EEAE60479D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{A9489093-A665-8E4A-B427-9D92B8FD26ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$9:$E$15</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -101,6 +105,1100 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time of Processes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N = 100 B = 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48527199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46931600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50485599999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.485126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53655600000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.479688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58155199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7EAC-1E4E-9AB7-C994C6714C38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>N =100 B = 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48297200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47009400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49681199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48800199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48503400000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57974999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7EAC-1E4E-9AB7-C994C6714C38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>N = 398 B = 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$16:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.69977599999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80072600000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82555199999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85140800000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66488400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81520999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7EAC-1E4E-9AB7-C994C6714C38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1067394239"/>
+        <c:axId val="1067358559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1067394239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067358559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1067358559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067394239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1930400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED028521-8C2F-2141-89EB-4D8C491B232A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D152215A-F1A3-A147-90E3-64B7B5470738}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,10 +1529,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -457,10 +1555,10 @@
         <v>0.48527199999999998</v>
       </c>
       <c r="F2">
+        <v>0.35925400000000002</v>
+      </c>
+      <c r="G2">
         <v>7.1053402564500004E-2</v>
-      </c>
-      <c r="G2">
-        <v>0.35925400000000002</v>
       </c>
       <c r="H2">
         <v>0.11417776</v>
@@ -483,10 +1581,10 @@
         <v>0.46931600000000001</v>
       </c>
       <c r="F3">
+        <v>0.296296</v>
+      </c>
+      <c r="G3">
         <v>3.8420204892699997E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.296296</v>
       </c>
       <c r="H3">
         <v>3.0741830000000001E-2</v>
@@ -509,10 +1607,10 @@
         <v>0.50485599999999997</v>
       </c>
       <c r="F4">
+        <v>0.31779400000000002</v>
+      </c>
+      <c r="G4">
         <v>0.168967497656</v>
-      </c>
-      <c r="G4">
-        <v>0.31779400000000002</v>
       </c>
       <c r="H4">
         <v>3.2508519999999999E-2</v>
@@ -535,10 +1633,10 @@
         <v>0.485126</v>
       </c>
       <c r="F5">
+        <v>0.24940599999999999</v>
+      </c>
+      <c r="G5">
         <v>4.8230800573900001E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.24940599999999999</v>
       </c>
       <c r="H5">
         <v>3.081385E-2</v>
@@ -561,10 +1659,10 @@
         <v>0.53655600000000003</v>
       </c>
       <c r="F6">
+        <v>0.28795999999999999</v>
+      </c>
+      <c r="G6">
         <v>5.2840655408499998E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.28795999999999999</v>
       </c>
       <c r="H6">
         <v>8.5592299999999996E-2</v>
@@ -587,10 +1685,10 @@
         <v>0.479688</v>
       </c>
       <c r="F7">
+        <v>0.29296</v>
+      </c>
+      <c r="G7">
         <v>4.0167034443699998E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.29296</v>
       </c>
       <c r="H7">
         <v>7.4220469999999997E-2</v>
@@ -613,10 +1711,10 @@
         <v>0.58155199999999996</v>
       </c>
       <c r="F8">
+        <v>0.27039400000000002</v>
+      </c>
+      <c r="G8">
         <v>3.4656302399399999E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.27039400000000002</v>
       </c>
       <c r="H8">
         <v>0.11448563</v>
@@ -639,10 +1737,10 @@
         <v>0.48297200000000001</v>
       </c>
       <c r="F9">
+        <v>0.31931399999999999</v>
+      </c>
+      <c r="G9">
         <v>6.7576587780100006E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.31931399999999999</v>
       </c>
       <c r="H9">
         <v>8.2378510000000002E-2</v>
@@ -665,10 +1763,10 @@
         <v>0.47009400000000001</v>
       </c>
       <c r="F10">
+        <v>0.32397199999999998</v>
+      </c>
+      <c r="G10">
         <v>3.9035588428999998E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.32397199999999998</v>
       </c>
       <c r="H10">
         <v>6.8559919999999996E-2</v>
@@ -691,10 +1789,10 @@
         <v>0.49681199999999998</v>
       </c>
       <c r="F11">
+        <v>0.33989599999999998</v>
+      </c>
+      <c r="G11">
         <v>4.7661941378799998E-2</v>
-      </c>
-      <c r="G11">
-        <v>0.33989599999999998</v>
       </c>
       <c r="H11">
         <v>6.3461900000000002E-2</v>
@@ -717,10 +1815,10 @@
         <v>0.48800199999999999</v>
       </c>
       <c r="F12">
+        <v>0.29674</v>
+      </c>
+      <c r="G12">
         <v>4.7628205886800001E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.29674</v>
       </c>
       <c r="H12">
         <v>6.7975320000000006E-2</v>
@@ -743,10 +1841,10 @@
         <v>0.53491</v>
       </c>
       <c r="F13">
+        <v>0.30171199999999998</v>
+      </c>
+      <c r="G13">
         <v>5.2394521660199998E-2</v>
-      </c>
-      <c r="G13">
-        <v>0.30171199999999998</v>
       </c>
       <c r="H13">
         <v>6.8929539999999997E-2</v>
@@ -769,10 +1867,10 @@
         <v>0.48503400000000002</v>
       </c>
       <c r="F14">
+        <v>0.28117399999999998</v>
+      </c>
+      <c r="G14">
         <v>4.15710096582E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.28117399999999998</v>
       </c>
       <c r="H14">
         <v>6.3235780000000005E-2</v>
@@ -795,10 +1893,10 @@
         <v>0.57974999999999999</v>
       </c>
       <c r="F15">
+        <v>0.30410999999999999</v>
+      </c>
+      <c r="G15">
         <v>3.3365124007000001E-2</v>
-      </c>
-      <c r="G15">
-        <v>0.30410999999999999</v>
       </c>
       <c r="H15">
         <v>0.29364383999999999</v>
@@ -821,10 +1919,10 @@
         <v>0.69977599999999995</v>
       </c>
       <c r="F16">
+        <v>0.52772200000000002</v>
+      </c>
+      <c r="G16">
         <v>7.5305762223099995E-2</v>
-      </c>
-      <c r="G16">
-        <v>0.52772200000000002</v>
       </c>
       <c r="H16">
         <v>6.0965470000000001E-2</v>
@@ -847,10 +1945,10 @@
         <v>0.80072600000000005</v>
       </c>
       <c r="F17">
+        <v>0.54853600000000002</v>
+      </c>
+      <c r="G17">
         <v>4.64974722324E-2</v>
-      </c>
-      <c r="G17">
-        <v>0.54853600000000002</v>
       </c>
       <c r="H17">
         <v>7.5772610000000004E-2</v>
@@ -873,10 +1971,10 @@
         <v>0.78047</v>
       </c>
       <c r="F18">
+        <v>0.66072799999999998</v>
+      </c>
+      <c r="G18">
         <v>4.3444459945999998E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.66072799999999998</v>
       </c>
       <c r="H18">
         <v>6.3598100000000005E-2</v>
@@ -899,10 +1997,10 @@
         <v>0.82555199999999995</v>
       </c>
       <c r="F19">
+        <v>0.47683799999999998</v>
+      </c>
+      <c r="G19">
         <v>5.0743859687700003E-2</v>
-      </c>
-      <c r="G19">
-        <v>0.47683799999999998</v>
       </c>
       <c r="H19">
         <v>8.8950639999999997E-2</v>
@@ -925,10 +2023,10 @@
         <v>0.85140800000000005</v>
       </c>
       <c r="F20">
+        <v>0.58287999999999995</v>
+      </c>
+      <c r="G20">
         <v>4.9324248965399997E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.58287999999999995</v>
       </c>
       <c r="H20">
         <v>6.5847020000000006E-2</v>
@@ -951,10 +2049,10 @@
         <v>0.66488400000000003</v>
       </c>
       <c r="F21">
+        <v>0.43586399999999997</v>
+      </c>
+      <c r="G21">
         <v>3.5085018797200003E-2</v>
-      </c>
-      <c r="G21">
-        <v>0.43586399999999997</v>
       </c>
       <c r="H21">
         <v>7.3660879999999998E-2</v>
@@ -977,10 +2075,10 @@
         <v>0.81520999999999999</v>
       </c>
       <c r="F22">
+        <v>0.41898800000000003</v>
+      </c>
+      <c r="G22">
         <v>4.84604364405E-2</v>
-      </c>
-      <c r="G22">
-        <v>0.41898800000000003</v>
       </c>
       <c r="H22">
         <v>0.17350999</v>
@@ -988,5 +2086,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab3/starter/src/Lab 3.xlsx
+++ b/lab3/starter/src/Lab 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/d3goel/ECE-254-Working/ECE254/lab3/starter/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9FDAF3-A3A3-8B4A-9A03-716468E2A5E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2D679-4D47-934E-B008-B274BCC3F1C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{A9489093-A665-8E4A-B427-9D92B8FD26ED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{A9489093-A665-8E4A-B427-9D92B8FD26ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Data!$E$2:$E$8</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Data!$E$9:$E$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Data!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Data!$B$9:$B$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Data!$E$2:$E$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Data!$E$9:$E$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -165,7 +161,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> the Buffer Size (Processes)</a:t>
+              <a:t> the Number of Items (Threads)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -210,10 +206,10 @@
           <c:idx val="6"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>N = 100 B = 4</c:v>
+            <c:v>N = 100 B = 8</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -224,16 +220,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -256,60 +246,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$B$2:$B$8</c:f>
+              <c:f>Data!$A$9:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$E$2:$E$8</c:f>
+              <c:f>Data!$F$9:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.48527199999999998</c:v>
+                  <c:v>0.31931399999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46931600000000001</c:v>
+                  <c:v>0.32397199999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50485599999999997</c:v>
+                  <c:v>0.33989599999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.485126</c:v>
+                  <c:v>0.29674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53655600000000003</c:v>
+                  <c:v>0.30171199999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.479688</c:v>
+                  <c:v>0.28117399999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58155199999999996</c:v>
+                  <c:v>0.30410999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,7 +307,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C49F-534C-9BFE-C1DCC714A123}"/>
+              <c16:uniqueId val="{00000001-B811-0948-B372-955B2ADB4829}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -325,7 +315,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>N =100 B = 8</c:v>
+            <c:v>N =398 B = 8</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -339,7 +329,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:noFill/>
@@ -363,60 +353,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$B$9:$B$15</c:f>
+              <c:f>Data!$A$16:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$E$9:$E$15</c:f>
+              <c:f>Data!$F$16:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.48297200000000001</c:v>
+                  <c:v>0.52772200000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47009400000000001</c:v>
+                  <c:v>0.54853600000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49681199999999998</c:v>
+                  <c:v>0.66072799999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48800199999999999</c:v>
+                  <c:v>0.47683799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53491</c:v>
+                  <c:v>0.58287999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48503400000000002</c:v>
+                  <c:v>0.43586399999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57974999999999999</c:v>
+                  <c:v>0.41898800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,7 +414,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C49F-534C-9BFE-C1DCC714A123}"/>
+              <c16:uniqueId val="{00000003-B811-0948-B372-955B2ADB4829}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -480,12 +470,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Buffer</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Size</a:t>
+                  <a:t>Number of Items </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1317,6 +1303,7 @@
         <c:crossAx val="1067358559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1067358559"/>
@@ -1523,7 +1510,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1562,7 +1549,656 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> the Number of Producers (Threads)</a:t>
+              <a:t> the Buffer Size (Processes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N = 100 B = 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48527199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46931600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50485599999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.485126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53655600000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.479688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58155199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B3BA-9942-BA3B-939AF32585BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>N =100 B = 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$9:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$E$9:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48297200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47009400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49681199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48800199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48503400000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57974999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B3BA-9942-BA3B-939AF32585BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1067394239"/>
+        <c:axId val="1067358559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1067394239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Buffer</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067358559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1067358559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067394239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Increasing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> the Buffer Size (Threads)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1653,30 +2289,30 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$8</c:f>
+              <c:f>Data!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,7 +2350,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-302E-F94A-A58B-FEC716DFA0C6}"/>
+              <c16:uniqueId val="{00000001-4F46-D849-975F-3B542B44E8A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1760,30 +2396,30 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$C$9:$C$15</c:f>
+              <c:f>Data!$B$9:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1821,116 +2457,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-302E-F94A-A58B-FEC716DFA0C6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>N = 398 B = 8</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Data!$C$16:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Data!$F$16:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.52772200000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54853600000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66072799999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47683799999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58287999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.43586399999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.41898800000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-302E-F94A-A58B-FEC716DFA0C6}"/>
+              <c16:uniqueId val="{00000003-4F46-D849-975F-3B542B44E8A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1987,11 +2514,650 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>Buffer</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Producers</a:t>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067358559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1067358559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067394239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Increasing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> the Number of Items (Threads)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N = 100 B = 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$9:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$F$9:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.31931399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32397199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33989599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30171199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28117399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30410999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B562-644F-850B-F2AEA5EDDCC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>N =398 B = 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$16:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$F$16:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.52772200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54853600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66072799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47683799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58287999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43586399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41898800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B562-644F-850B-F2AEA5EDDCC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1067394239"/>
+        <c:axId val="1067358559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1067394239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Number of Items </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2199,6 +3365,1300 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Increasing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> the Number of Items (Processes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N = 100 B = 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$9:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$E$9:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48297200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47009400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49681199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48800199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48503400000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57974999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C217-D14E-9DE5-7165BF2A9549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>N =398 B = 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$16:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$E$16:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.69977599999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80072600000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82555199999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85140800000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66488400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81520999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C217-D14E-9DE5-7165BF2A9549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1067394239"/>
+        <c:axId val="1067358559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1067394239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Items</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067358559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1067358559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067394239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Increasing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> the Number of Items (Processes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N = 100 B = 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$9:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$E$9:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48297200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47009400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49681199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48800199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48503400000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57974999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1809-A746-821D-7FE1E78D8A23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>N =398 B = 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$16:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$E$16:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.69977599999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80072600000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82555199999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85140800000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66488400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81520999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1809-A746-821D-7FE1E78D8A23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1067394239"/>
+        <c:axId val="1067358559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1067394239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Items</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067358559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1067358559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067394239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5027,6 +7487,7 @@
         <c:crossAx val="1067358559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1067358559"/>
@@ -5776,6 +8237,7 @@
         <c:crossAx val="1067358559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1067358559"/>
@@ -6525,6 +8987,7 @@
         <c:crossAx val="1067358559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1067358559"/>
@@ -6772,6 +9235,166 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8163,7 +10786,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8679,7 +11302,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9195,7 +11818,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9711,7 +12334,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10227,7 +12850,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10743,7 +13366,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11259,7 +13882,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11775,7 +14398,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12291,27 +14914,2091 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>423334</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>135467</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>151190</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660399</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>201990</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7D32FE-6DE6-5E46-AEBC-D94CED57C82F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FB2C2E-5105-EC4F-93C5-C2FB573C5265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12333,23 +17020,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>270933</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>117324</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541866</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>100391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28E38F6-A6EF-824C-B20C-917C7761BAAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60F484F-A76E-3747-826E-BD8D450DBCDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12696,6 +17383,168 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97366</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83457</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A82853D-1D18-1A47-8DDF-110147F5B8C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97366</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D146A8-1FF3-2640-88DD-FCE42867930E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215899</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4377CA-644A-B142-ADD0-215CC3CDD0AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97366</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83457</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C21000-6F88-554D-A605-4D708C35F75E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12995,8 +17844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D152215A-F1A3-A147-90E3-64B7B5470738}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView topLeftCell="A21" zoomScale="75" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13625,7 +18474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6275CA8-3916-E641-8A3F-796028D9B95C}">
   <dimension ref="Q78"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0"/>
+    <sheetView zoomScale="65" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -13642,7 +18493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F13563-05E6-274A-A4C8-BE3718C17B6B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -13655,11 +18508,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760B45CA-DD74-7247-BDBF-EC0D450757DB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13667,12 +18523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA452040-9CD7-A245-8F34-78C66E5FCFCB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>